--- a/metadata/atacseq/todo/TMC - University of California San Diego focusing on female reproduction (ATACseq).xlsx
+++ b/metadata/atacseq/todo/TMC - University of California San Diego focusing on female reproduction (ATACseq).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$383</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$95</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>bulkATACseq</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,11 +481,6 @@
           <t>sciATACseq</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,11 +508,6 @@
           <t>scATACseq</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -545,11 +530,6 @@
           <t>Custom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -567,11 +547,6 @@
           <t>minute</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Custom</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -584,11 +559,6 @@
           <t>10X Genomics; Chromium i7 Sample Index Plate (96 rxn); PN 220103</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -599,11 +569,6 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA TDE1 Enzyme and Buffer Small Kit; PN 20034197</t>
         </is>
       </c>
     </row>
@@ -888,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,30 +914,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM233.PTMG.692</t>
+          <t>HBM235.MJXF.254</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM233.PTMG.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.MJXF.254</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM235.MJXF.254</t>
+          <t>HBM246.XSZS.795</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -988,37 +953,37 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.MJXF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM246.XSZS.795</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM235.MJXF.254</t>
+          <t>HBM252.MZDL.327</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.MJXF.254</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.MZDL.327</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM246.XSZS.795</t>
+          <t>HBM255.ZLZZ.262</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1034,37 +999,37 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM246.XSZS.795</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM255.ZLZZ.262</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM246.XSZS.795</t>
+          <t>HBM272.RRTB.465</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM246.XSZS.795</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM272.RRTB.465</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM252.MZDL.327</t>
+          <t>HBM286.LJRH.843</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1080,37 +1045,37 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.MZDL.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM286.LJRH.843</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM252.MZDL.327</t>
+          <t>HBM293.ZQGW.572</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.MZDL.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM293.ZQGW.572</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM255.ZLZZ.262</t>
+          <t>HBM329.RGRH.478</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1126,37 +1091,37 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM255.ZLZZ.262</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM329.RGRH.478</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM255.ZLZZ.262</t>
+          <t>HBM342.TQTW.839</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM255.ZLZZ.262</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.TQTW.839</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM272.RRTB.465</t>
+          <t>HBM348.FDKD.266</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1172,37 +1137,37 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM272.RRTB.465</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.FDKD.266</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM272.RRTB.465</t>
+          <t>HBM352.FDMG.835</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM272.RRTB.465</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM352.FDMG.835</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM286.LJRH.843</t>
+          <t>HBM353.NWSX.387</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1218,37 +1183,37 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.LJRH.843</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM353.NWSX.387</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM286.LJRH.843</t>
+          <t>HBM365.FSSG.242</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.LJRH.843</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM365.FSSG.242</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM293.ZQGW.572</t>
+          <t>HBM365.GJPS.725</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1264,37 +1229,37 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.ZQGW.572</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM365.GJPS.725</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM293.ZQGW.572</t>
+          <t>HBM366.MNDK.986</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM293.ZQGW.572</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM366.MNDK.986</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM329.RGRH.478</t>
+          <t>HBM383.DJXW.832</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1310,37 +1275,37 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.RGRH.478</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM383.DJXW.832</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM329.RGRH.478</t>
+          <t>HBM397.FCFM.456</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM329.RGRH.478</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM397.FCFM.456</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM342.TQTW.839</t>
+          <t>HBM423.LFPG.282</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1356,37 +1321,37 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.TQTW.839</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM423.LFPG.282</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM342.TQTW.839</t>
+          <t>HBM426.JKVD.368</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.TQTW.839</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM426.JKVD.368</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM348.FDKD.266</t>
+          <t>HBM426.QJHX.428</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1402,37 +1367,37 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.FDKD.266</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM426.QJHX.428</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM348.FDKD.266</t>
+          <t>HBM435.PFCT.563</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.FDKD.266</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.PFCT.563</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM352.FDMG.835</t>
+          <t>HBM438.DLHF.858</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1448,37 +1413,37 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.FDMG.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM438.DLHF.858</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM352.FDMG.835</t>
+          <t>HBM438.ZGRH.497</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM352.FDMG.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM438.ZGRH.497</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM353.NWSX.387</t>
+          <t>HBM444.KGDN.847</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1494,37 +1459,37 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM353.NWSX.387</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM444.KGDN.847</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM353.NWSX.387</t>
+          <t>HBM466.WZRW.832</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM353.NWSX.387</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM466.WZRW.832</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM365.FSSG.242</t>
+          <t>HBM469.JTFF.596</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1540,37 +1505,37 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM365.FSSG.242</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM469.JTFF.596</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM365.FSSG.242</t>
+          <t>HBM482.CMQQ.652</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM365.FSSG.242</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.CMQQ.652</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM365.GJPS.725</t>
+          <t>HBM482.LQFP.234</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1586,37 +1551,37 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM365.GJPS.725</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM482.LQFP.234</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM365.GJPS.725</t>
+          <t>HBM485.MRHR.664</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM365.GJPS.725</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.MRHR.664</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM366.MNDK.986</t>
+          <t>HBM496.XHJK.672</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1632,37 +1597,37 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM366.MNDK.986</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM496.XHJK.672</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM366.MNDK.986</t>
+          <t>HBM498.RCGZ.357</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM366.MNDK.986</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM498.RCGZ.357</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM383.DJXW.832</t>
+          <t>HBM499.JLCD.932</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1678,37 +1643,37 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM383.DJXW.832</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM499.JLCD.932</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM383.DJXW.832</t>
+          <t>HBM527.SQZH.943</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM383.DJXW.832</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.SQZH.943</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM397.FCFM.456</t>
+          <t>HBM533.BZQT.427</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1724,37 +1689,37 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.FCFM.456</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM533.BZQT.427</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM397.FCFM.456</t>
+          <t>HBM553.FBNP.234</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM397.FCFM.456</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM553.FBNP.234</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM423.LFPG.282</t>
+          <t>HBM554.XNBC.385</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1770,37 +1735,37 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM423.LFPG.282</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM554.XNBC.385</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM423.LFPG.282</t>
+          <t>HBM559.FDXJ.345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM423.LFPG.282</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM559.FDXJ.345</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM426.JKVD.368</t>
+          <t>HBM563.SRKP.864</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1816,37 +1781,37 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM426.JKVD.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM563.SRKP.864</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM426.JKVD.368</t>
+          <t>HBM574.MNBN.747</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM426.JKVD.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM574.MNBN.747</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM426.QJHX.428</t>
+          <t>HBM575.LSCF.667</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1862,37 +1827,37 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM426.QJHX.428</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM575.LSCF.667</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM426.QJHX.428</t>
+          <t>HBM584.QCSS.389</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM426.QJHX.428</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.QCSS.389</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM435.PFCT.563</t>
+          <t>HBM597.KRKQ.949</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1908,37 +1873,37 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.PFCT.563</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM597.KRKQ.949</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM435.PFCT.563</t>
+          <t>HBM624.DZMV.985</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.PFCT.563</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.DZMV.985</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM438.DLHF.858</t>
+          <t>HBM624.HDWQ.233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1954,37 +1919,37 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM438.DLHF.858</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.HDWQ.233</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM438.DLHF.858</t>
+          <t>HBM624.XJNT.273</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM438.DLHF.858</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.XJNT.273</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM438.ZGRH.497</t>
+          <t>HBM632.HLWZ.777</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2000,37 +1965,37 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM438.ZGRH.497</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.HLWZ.777</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM438.ZGRH.497</t>
+          <t>HBM632.JMZH.587</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM438.ZGRH.497</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.JMZH.587</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM444.KGDN.847</t>
+          <t>HBM644.ZJRL.733</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2046,37 +2011,37 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM444.KGDN.847</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.ZJRL.733</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM444.KGDN.847</t>
+          <t>HBM655.XNDN.645</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM444.KGDN.847</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.XNDN.645</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM466.WZRW.832</t>
+          <t>HBM656.BQWK.553</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2092,37 +2057,37 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM466.WZRW.832</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM656.BQWK.553</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM466.WZRW.832</t>
+          <t>HBM662.NNRG.834</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM466.WZRW.832</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.NNRG.834</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM469.JTFF.596</t>
+          <t>HBM674.BMWG.285</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2138,37 +2103,37 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM469.JTFF.596</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM674.BMWG.285</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM469.JTFF.596</t>
+          <t>HBM678.LSBD.342</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM469.JTFF.596</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM678.LSBD.342</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM482.CMQQ.652</t>
+          <t>HBM679.TJBG.375</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2184,37 +2149,37 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.CMQQ.652</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.TJBG.375</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM482.CMQQ.652</t>
+          <t>HBM685.QVMS.844</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.CMQQ.652</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.QVMS.844</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM482.LQFP.234</t>
+          <t>HBM695.RQCZ.664</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2230,37 +2195,37 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.LQFP.234</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.RQCZ.664</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM482.LQFP.234</t>
+          <t>HBM698.GFSL.587</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM482.LQFP.234</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM698.GFSL.587</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM485.MRHR.664</t>
+          <t>HBM727.QQHL.766</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2276,37 +2241,37 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.MRHR.664</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.QQHL.766</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM485.MRHR.664</t>
+          <t>HBM728.PVMT.953</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.MRHR.664</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM728.PVMT.953</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM496.XHJK.672</t>
+          <t>HBM736.WPDW.483</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2322,37 +2287,37 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM496.XHJK.672</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM736.WPDW.483</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM496.XHJK.672</t>
+          <t>HBM747.KXPH.229</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM496.XHJK.672</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.KXPH.229</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM498.RCGZ.357</t>
+          <t>HBM748.TLWH.764</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2368,37 +2333,37 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM498.RCGZ.357</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.TLWH.764</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM498.RCGZ.357</t>
+          <t>HBM752.DWLV.833</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM498.RCGZ.357</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM752.DWLV.833</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM499.JLCD.932</t>
+          <t>HBM759.MKCB.626</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2414,37 +2379,37 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.JLCD.932</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.MKCB.626</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM499.JLCD.932</t>
+          <t>HBM762.CVFB.295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM499.JLCD.932</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM762.CVFB.295</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM527.SQZH.943</t>
+          <t>HBM782.WRBP.463</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2460,37 +2425,37 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.SQZH.943</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM782.WRBP.463</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM527.SQZH.943</t>
+          <t>HBM796.PRGV.859</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>transposition_method</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>snATACseq</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.SQZH.943</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.PRGV.859</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM533.BZQT.427</t>
+          <t>HBM797.XQBD.652</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2506,37 +2471,37 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.BZQT.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM797.XQBD.652</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM533.BZQT.427</t>
+          <t>HBM823.RGPM.675</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.BZQT.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM823.RGPM.675</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM553.FBNP.234</t>
+          <t>HBM825.BLCM.375</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2552,37 +2517,37 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM553.FBNP.234</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM825.BLCM.375</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM553.FBNP.234</t>
+          <t>HBM825.GKCR.866</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM553.FBNP.234</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM825.GKCR.866</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM554.XNBC.385</t>
+          <t>HBM842.QGLN.598</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2598,37 +2563,37 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.XNBC.385</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM842.QGLN.598</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM554.XNBC.385</t>
+          <t>HBM848.TRGN.679</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.XNBC.385</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.TRGN.679</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM559.FDXJ.345</t>
+          <t>HBM848.VRVN.863</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2644,37 +2609,37 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM559.FDXJ.345</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.VRVN.863</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM559.FDXJ.345</t>
+          <t>HBM869.WMSX.243</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM559.FDXJ.345</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM869.WMSX.243</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM563.SRKP.864</t>
+          <t>HBM876.DFLN.447</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2690,37 +2655,37 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM563.SRKP.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM876.DFLN.447</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM563.SRKP.864</t>
+          <t>HBM877.DKZK.897</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM563.SRKP.864</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.DKZK.897</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM574.MNBN.747</t>
+          <t>HBM882.ZMZT.346</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2736,37 +2701,37 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.MNBN.747</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM882.ZMZT.346</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM574.MNBN.747</t>
+          <t>HBM896.FJHV.265</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM574.MNBN.747</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM896.FJHV.265</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM575.LSCF.667</t>
+          <t>HBM896.TVLC.348</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2782,37 +2747,37 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM575.LSCF.667</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM896.TVLC.348</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM575.LSCF.667</t>
+          <t>HBM922.LKKH.659</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM575.LSCF.667</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM922.LKKH.659</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM584.QCSS.389</t>
+          <t>HBM922.PQTL.745</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2828,37 +2793,37 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.QCSS.389</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM922.PQTL.745</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM584.QCSS.389</t>
+          <t>HBM929.KWXM.834</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.QCSS.389</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.KWXM.834</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM597.KRKQ.949</t>
+          <t>HBM939.HXST.387</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2874,37 +2839,37 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM597.KRKQ.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.HXST.387</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM597.KRKQ.949</t>
+          <t>HBM939.KWKH.229</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM597.KRKQ.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.KWKH.229</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM624.DZMV.985</t>
+          <t>HBM943.ZJLC.485</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2920,37 +2885,37 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.DZMV.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM943.ZJLC.485</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM624.DZMV.985</t>
+          <t>HBM946.TDSZ.378</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.DZMV.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.TDSZ.378</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM624.HDWQ.233</t>
+          <t>HBM949.QHWV.262</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2966,37 +2931,37 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.HDWQ.233</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM949.QHWV.262</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM624.HDWQ.233</t>
+          <t>HBM954.JBMP.549</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.HDWQ.233</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM954.JBMP.549</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM624.XJNT.273</t>
+          <t>HBM969.WCWD.298</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3012,37 +2977,37 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.XJNT.273</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.WCWD.298</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM624.XJNT.273</t>
+          <t>HBM985.QMTC.456</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.XJNT.273</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM985.QMTC.456</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM632.HLWZ.777</t>
+          <t>HBM989.MBBZ.734</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3058,2159 +3023,40 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.HLWZ.777</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM989.MBBZ.734</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM632.HLWZ.777</t>
+          <t>HBM999.SHCK.657</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>transposition_reagent_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
+          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.HLWZ.777</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>HBM632.JMZH.587</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.JMZH.587</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>HBM632.JMZH.587</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.JMZH.587</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>HBM644.ZJRL.733</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.ZJRL.733</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>HBM644.ZJRL.733</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.ZJRL.733</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>HBM655.XNDN.645</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.XNDN.645</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>HBM655.XNDN.645</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.XNDN.645</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>HBM656.BQWK.553</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.BQWK.553</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>HBM656.BQWK.553</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM656.BQWK.553</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>HBM662.NNRG.834</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.NNRG.834</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>HBM662.NNRG.834</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.NNRG.834</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>HBM674.BMWG.285</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.BMWG.285</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>HBM674.BMWG.285</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM674.BMWG.285</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>HBM678.LSBD.342</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM678.LSBD.342</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>HBM678.LSBD.342</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM678.LSBD.342</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>HBM679.TJBG.375</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.TJBG.375</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>HBM679.TJBG.375</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.TJBG.375</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>HBM685.QVMS.844</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.QVMS.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>HBM685.QVMS.844</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.QVMS.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>HBM695.RQCZ.664</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.RQCZ.664</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>HBM695.RQCZ.664</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.RQCZ.664</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>HBM698.GFSL.587</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM698.GFSL.587</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>HBM698.GFSL.587</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM698.GFSL.587</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>HBM727.QQHL.766</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.QQHL.766</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>HBM727.QQHL.766</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.QQHL.766</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>HBM728.PVMT.953</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM728.PVMT.953</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>HBM728.PVMT.953</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM728.PVMT.953</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>HBM736.WPDW.483</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM736.WPDW.483</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>HBM736.WPDW.483</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM736.WPDW.483</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>HBM747.KXPH.229</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.KXPH.229</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>HBM748.TLWH.764</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.TLWH.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>HBM748.TLWH.764</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.TLWH.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>HBM752.DWLV.833</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.DWLV.833</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>HBM752.DWLV.833</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM752.DWLV.833</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>HBM759.MKCB.626</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.MKCB.626</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HBM759.MKCB.626</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.MKCB.626</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HBM762.CVFB.295</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM762.CVFB.295</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HBM762.CVFB.295</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM762.CVFB.295</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HBM782.WRBP.463</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.WRBP.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>HBM782.WRBP.463</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.WRBP.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>HBM796.PRGV.859</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>transposition_method</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>snATACseq</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.PRGV.859</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>HBM797.XQBD.652</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM797.XQBD.652</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HBM797.XQBD.652</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM797.XQBD.652</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HBM823.RGPM.675</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM823.RGPM.675</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HBM823.RGPM.675</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM823.RGPM.675</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HBM825.BLCM.375</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM825.BLCM.375</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HBM825.BLCM.375</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM825.BLCM.375</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HBM825.GKCR.866</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM825.GKCR.866</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>HBM825.GKCR.866</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM825.GKCR.866</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>HBM842.QGLN.598</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM842.QGLN.598</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>HBM842.QGLN.598</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM842.QGLN.598</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>HBM848.TRGN.679</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.TRGN.679</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>HBM848.TRGN.679</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.TRGN.679</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HBM848.VRVN.863</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.VRVN.863</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>HBM848.VRVN.863</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.VRVN.863</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>HBM869.WMSX.243</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.WMSX.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>HBM869.WMSX.243</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.WMSX.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>HBM876.DFLN.447</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM876.DFLN.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>HBM876.DFLN.447</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM876.DFLN.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>HBM877.DKZK.897</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.DKZK.897</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HBM877.DKZK.897</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.DKZK.897</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>HBM882.ZMZT.346</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM882.ZMZT.346</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>HBM882.ZMZT.346</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM882.ZMZT.346</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HBM896.FJHV.265</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM896.FJHV.265</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>HBM896.FJHV.265</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM896.FJHV.265</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>HBM896.TVLC.348</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM896.TVLC.348</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>HBM896.TVLC.348</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM896.TVLC.348</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>HBM922.LKKH.659</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM922.LKKH.659</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>HBM922.LKKH.659</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM922.LKKH.659</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>HBM922.PQTL.745</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM922.PQTL.745</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>HBM922.PQTL.745</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM922.PQTL.745</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>HBM929.KWXM.834</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.KWXM.834</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>HBM929.KWXM.834</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.KWXM.834</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>HBM939.HXST.387</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.HXST.387</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>HBM939.HXST.387</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.HXST.387</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>HBM939.KWKH.229</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.KWKH.229</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>HBM939.KWKH.229</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.KWKH.229</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>HBM943.ZJLC.485</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.ZJLC.485</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>HBM943.ZJLC.485</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM943.ZJLC.485</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>HBM946.TDSZ.378</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.TDSZ.378</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>HBM946.TDSZ.378</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.TDSZ.378</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>HBM949.QHWV.262</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.QHWV.262</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>HBM949.QHWV.262</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM949.QHWV.262</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>HBM954.JBMP.549</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM954.JBMP.549</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>HBM954.JBMP.549</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM954.JBMP.549</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>HBM969.WCWD.298</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.WCWD.298</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>HBM969.WCWD.298</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.WCWD.298</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>HBM985.QMTC.456</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM985.QMTC.456</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>HBM985.QMTC.456</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM985.QMTC.456</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>HBM989.MBBZ.734</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM989.MBBZ.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>HBM989.MBBZ.734</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM989.MBBZ.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>HBM999.SHCK.657</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Illumina; IDT for Illumina Nextera DNA UD Index set</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM999.SHCK.657</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>HBM999.SHCK.657</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>transposition_reagent_kit</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Illumina; Illumina Tagment DNA Enzyme and Buffer Small Kit; PN 20034197</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM999.SHCK.657</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E187"/>
-  <dataValidations count="3">
-    <dataValidation sqref="D2 D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42 D44 D46 D48 D50 D52 D54 D56 D58 D60 D62 D64 D66 D68 D70 D72 D74 D76 D78 D80 D82 D84 D86 D88 D90 D92 D94 D96 D98 D100 D102 D104 D106 D108 D110 D112 D114 D116 D118 D120 D122 D125 D127 D129 D131 D133 D136 D138 D140 D142 D144 D146 D148 D150 D152 D154 D156 D158 D160 D162 D164 D166 D168 D170 D172 D174 D176 D178 D180 D182 D184 D186" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E95"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D64 D65 D66 D67 D68 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$19</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59 D61 D63 D65 D67 D69 D71 D73 D75 D77 D79 D81 D83 D85 D87 D89 D91 D93 D95 D97 D99 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D123 D126 D128 D130 D132 D134 D137 D139 D141 D143 D145 D147 D149 D151 D153 D155 D157 D159 D161 D163 D165 D167 D169 D171 D173 D175 D177 D179 D181 D183 D185 D187" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$7</formula1>
-    </dataValidation>
-    <dataValidation sqref="D124 D135" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D63 D69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$4</formula1>
     </dataValidation>
   </dataValidations>
